--- a/public/excel/课程信息上传模板.xlsx
+++ b/public/excel/课程信息上传模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyfulDog\Desktop\导入表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H3C\Desktop\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14FF8E7-AB8F-436B-AAC0-B183FA9E9806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BED48D6-7CDF-432E-962B-BD5293B7D086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="3060" windowWidth="20325" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>课程编号</t>
   </si>
@@ -31,31 +31,40 @@
     <t>课程简介</t>
   </si>
   <si>
-    <t>面向专业ids</t>
-  </si>
-  <si>
     <t>课程限制人数</t>
   </si>
   <si>
     <t>课时要求</t>
   </si>
   <si>
-    <t>这是测试课程01</t>
-  </si>
-  <si>
-    <t>['1001','1002']</t>
+    <t>课程选课状态</t>
+  </si>
+  <si>
+    <t>id（不填）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id(为空)</t>
+    <t>测试课程0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>课程选课状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测量误差及实验数据处理1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测量误差及实验数据处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -75,11 +84,13 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -90,20 +101,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -149,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,16 +162,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -185,9 +182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,39 +192,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -331,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,13 +387,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -405,6 +395,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -469,11 +466,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,22 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="5" width="20.125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -516,33 +528,108 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="5">
-        <v>20250101</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2">
+        <v>20241101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="2">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
